--- a/Mock_Seal_Data.xlsx
+++ b/Mock_Seal_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholibrown/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D28C3B-9241-D64C-BFE9-A996FAB18FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D2C470-C453-EE42-A993-DF86D21FE11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="500" windowWidth="23640" windowHeight="15960" xr2:uid="{77F4F658-4860-0340-9561-8BCF0BC764EC}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>10:10am</t>
   </si>
   <si>
-    <t>Shooter</t>
-  </si>
-  <si>
     <t>2:41pm</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>Seal</t>
+  </si>
+  <si>
+    <t>Sampler</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>9</v>
@@ -716,28 +716,28 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="6"/>
     </row>
@@ -752,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -767,7 +767,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2">
         <v>2</v>
@@ -788,7 +788,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="3"/>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -837,7 +837,7 @@
         <v>20</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="3"/>
     </row>
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -867,7 +867,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
@@ -903,7 +903,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -915,10 +915,10 @@
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -939,7 +939,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="3"/>
     </row>
@@ -954,10 +954,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
@@ -966,10 +966,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="4"/>
     </row>
@@ -1039,7 +1039,7 @@
         <v>20</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="4"/>
     </row>
@@ -1054,7 +1054,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1069,7 +1069,7 @@
         <v>21</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -1090,7 +1090,7 @@
         <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
@@ -1105,10 +1105,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
@@ -1120,7 +1120,7 @@
         <v>21</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
@@ -1156,10 +1156,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -1168,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>21</v>
@@ -1192,7 +1192,7 @@
         <v>20</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
@@ -1204,11 +1204,11 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
@@ -1241,7 +1241,7 @@
         <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
@@ -1253,13 +1253,13 @@
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
@@ -1271,7 +1271,7 @@
         <v>21</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
@@ -1304,13 +1304,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>11</v>
@@ -1322,7 +1322,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         <v>20</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
@@ -1352,13 +1352,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -1373,7 +1373,7 @@
         <v>21</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>20</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
@@ -1403,16 +1403,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>11</v>
@@ -1421,10 +1421,10 @@
         <v>5</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>20</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
@@ -1457,13 +1457,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>11</v>
@@ -1496,7 +1496,7 @@
         <v>20</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
@@ -1508,10 +1508,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
@@ -1544,7 +1544,7 @@
         <v>20</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
@@ -1556,10 +1556,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>11</v>
@@ -1568,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>21</v>
@@ -1592,7 +1592,7 @@
         <v>20</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
